--- a/Financials/Yearly/CM_YR_FIN.xlsx
+++ b/Financials/Yearly/CM_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DBF3B6-320D-48CC-8CA6-05258BD7C9A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CM" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>CM</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,86 +689,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E7" s="2">
         <v>43039</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42674</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42308</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>41943</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41578</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41213</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40847</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10442600</v>
+        <v>13027400</v>
       </c>
       <c r="E8" s="3">
-        <v>9289400</v>
+        <v>10116000</v>
       </c>
       <c r="F8" s="3">
-        <v>8821600</v>
+        <v>8999000</v>
       </c>
       <c r="G8" s="3">
-        <v>8817000</v>
+        <v>8545800</v>
       </c>
       <c r="H8" s="3">
-        <v>9073600</v>
+        <v>8541300</v>
       </c>
       <c r="I8" s="3">
-        <v>9147300</v>
+        <v>8789900</v>
       </c>
       <c r="J8" s="3">
+        <v>8861300</v>
+      </c>
+      <c r="K8" s="3">
         <v>9244100</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -758,9 +799,12 @@
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -785,9 +829,12 @@
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -799,8 +846,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -825,9 +873,12 @@
       <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,9 +903,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -879,9 +933,12 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -906,9 +963,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4183000</v>
+        <v>6184400</v>
       </c>
       <c r="E17" s="3">
-        <v>3669800</v>
+        <v>4052200</v>
       </c>
       <c r="F17" s="3">
-        <v>3333300</v>
+        <v>3555100</v>
       </c>
       <c r="G17" s="3">
-        <v>3806600</v>
+        <v>3229100</v>
       </c>
       <c r="H17" s="3">
-        <v>4209100</v>
+        <v>3687600</v>
       </c>
       <c r="I17" s="3">
-        <v>4511000</v>
+        <v>4077500</v>
       </c>
       <c r="J17" s="3">
+        <v>4370000</v>
+      </c>
+      <c r="K17" s="3">
         <v>4697700</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6259500</v>
+        <v>6843000</v>
       </c>
       <c r="E18" s="3">
-        <v>5619600</v>
+        <v>6063800</v>
       </c>
       <c r="F18" s="3">
-        <v>5488200</v>
+        <v>5443900</v>
       </c>
       <c r="G18" s="3">
-        <v>5010400</v>
+        <v>5316600</v>
       </c>
       <c r="H18" s="3">
-        <v>4864400</v>
+        <v>4853700</v>
       </c>
       <c r="I18" s="3">
-        <v>4636300</v>
+        <v>4712300</v>
       </c>
       <c r="J18" s="3">
+        <v>4491300</v>
+      </c>
+      <c r="K18" s="3">
         <v>4546400</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,62 +1051,69 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1742300</v>
+        <v>-1852300</v>
       </c>
       <c r="E20" s="3">
-        <v>-1768500</v>
+        <v>-1687900</v>
       </c>
       <c r="F20" s="3">
-        <v>-2243200</v>
+        <v>-1713200</v>
       </c>
       <c r="G20" s="3">
-        <v>-2003500</v>
+        <v>-2173100</v>
       </c>
       <c r="H20" s="3">
-        <v>-1809900</v>
+        <v>-1940900</v>
       </c>
       <c r="I20" s="3">
-        <v>-1569500</v>
+        <v>-1753400</v>
       </c>
       <c r="J20" s="3">
+        <v>-1520400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1623300</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4935600</v>
+        <v>5480600</v>
       </c>
       <c r="E21" s="3">
-        <v>4207800</v>
+        <v>4780200</v>
       </c>
       <c r="F21" s="3">
-        <v>3580800</v>
+        <v>4075300</v>
       </c>
       <c r="G21" s="3">
-        <v>3634400</v>
+        <v>3468000</v>
       </c>
       <c r="H21" s="3">
-        <v>3327700</v>
+        <v>3519100</v>
       </c>
       <c r="I21" s="3">
-        <v>3342300</v>
+        <v>3223000</v>
       </c>
       <c r="J21" s="3">
+        <v>3237100</v>
+      </c>
+      <c r="K21" s="3">
         <v>3352300</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1064,63 +1138,72 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4517200</v>
+        <v>4990700</v>
       </c>
       <c r="E23" s="3">
-        <v>3851100</v>
+        <v>4376000</v>
       </c>
       <c r="F23" s="3">
-        <v>3245000</v>
+        <v>3730700</v>
       </c>
       <c r="G23" s="3">
-        <v>3006900</v>
+        <v>3143500</v>
       </c>
       <c r="H23" s="3">
-        <v>3054500</v>
+        <v>2912800</v>
       </c>
       <c r="I23" s="3">
-        <v>3066800</v>
+        <v>2959000</v>
       </c>
       <c r="J23" s="3">
+        <v>2970900</v>
+      </c>
+      <c r="K23" s="3">
         <v>2923100</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>892700</v>
+        <v>1058300</v>
       </c>
       <c r="E24" s="3">
-        <v>551600</v>
+        <v>864800</v>
       </c>
       <c r="F24" s="3">
-        <v>487100</v>
+        <v>534300</v>
       </c>
       <c r="G24" s="3">
-        <v>537000</v>
+        <v>471800</v>
       </c>
       <c r="H24" s="3">
-        <v>480900</v>
+        <v>520200</v>
       </c>
       <c r="I24" s="3">
-        <v>529300</v>
+        <v>465900</v>
       </c>
       <c r="J24" s="3">
+        <v>512800</v>
+      </c>
+      <c r="K24" s="3">
         <v>712100</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3624500</v>
+        <v>3932400</v>
       </c>
       <c r="E26" s="3">
-        <v>3299500</v>
+        <v>3511200</v>
       </c>
       <c r="F26" s="3">
-        <v>2757900</v>
+        <v>3196400</v>
       </c>
       <c r="G26" s="3">
-        <v>2469900</v>
+        <v>2671700</v>
       </c>
       <c r="H26" s="3">
-        <v>2573600</v>
+        <v>2392600</v>
       </c>
       <c r="I26" s="3">
-        <v>2537500</v>
+        <v>2493100</v>
       </c>
       <c r="J26" s="3">
+        <v>2458100</v>
+      </c>
+      <c r="K26" s="3">
         <v>2211000</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3570000</v>
+        <v>3853500</v>
       </c>
       <c r="E27" s="3">
-        <v>3255000</v>
+        <v>3458300</v>
       </c>
       <c r="F27" s="3">
-        <v>2712600</v>
+        <v>3153200</v>
       </c>
       <c r="G27" s="3">
-        <v>2405300</v>
+        <v>2627800</v>
       </c>
       <c r="H27" s="3">
-        <v>2499100</v>
+        <v>2330100</v>
       </c>
       <c r="I27" s="3">
-        <v>2409200</v>
+        <v>2420900</v>
       </c>
       <c r="J27" s="3">
+        <v>2333800</v>
+      </c>
+      <c r="K27" s="3">
         <v>2014300</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1318,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1253,9 +1348,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1742300</v>
+        <v>1852300</v>
       </c>
       <c r="E32" s="3">
-        <v>1768500</v>
+        <v>1687900</v>
       </c>
       <c r="F32" s="3">
-        <v>2243200</v>
+        <v>1713200</v>
       </c>
       <c r="G32" s="3">
-        <v>2003500</v>
+        <v>2173100</v>
       </c>
       <c r="H32" s="3">
-        <v>1809900</v>
+        <v>1940900</v>
       </c>
       <c r="I32" s="3">
-        <v>1569500</v>
+        <v>1753400</v>
       </c>
       <c r="J32" s="3">
+        <v>1520400</v>
+      </c>
+      <c r="K32" s="3">
         <v>1623300</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3570000</v>
+        <v>3853500</v>
       </c>
       <c r="E33" s="3">
-        <v>3255000</v>
+        <v>3458300</v>
       </c>
       <c r="F33" s="3">
-        <v>2712600</v>
+        <v>3153200</v>
       </c>
       <c r="G33" s="3">
-        <v>2405300</v>
+        <v>2627800</v>
       </c>
       <c r="H33" s="3">
-        <v>2499100</v>
+        <v>2330100</v>
       </c>
       <c r="I33" s="3">
-        <v>2409200</v>
+        <v>2420900</v>
       </c>
       <c r="J33" s="3">
+        <v>2333800</v>
+      </c>
+      <c r="K33" s="3">
         <v>2014300</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3570000</v>
+        <v>3853500</v>
       </c>
       <c r="E35" s="3">
-        <v>3255000</v>
+        <v>3458300</v>
       </c>
       <c r="F35" s="3">
-        <v>2712600</v>
+        <v>3153200</v>
       </c>
       <c r="G35" s="3">
-        <v>2405300</v>
+        <v>2627800</v>
       </c>
       <c r="H35" s="3">
-        <v>2499100</v>
+        <v>2330100</v>
       </c>
       <c r="I35" s="3">
-        <v>2409200</v>
+        <v>2420900</v>
       </c>
       <c r="J35" s="3">
+        <v>2333800</v>
+      </c>
+      <c r="K35" s="3">
         <v>2014300</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E38" s="2">
         <v>43039</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42674</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42308</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>41943</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41578</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41213</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40847</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,62 +1594,69 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2642700</v>
+        <v>3259600</v>
       </c>
       <c r="E41" s="3">
-        <v>2688800</v>
+        <v>2560100</v>
       </c>
       <c r="F41" s="3">
-        <v>2345400</v>
+        <v>2604700</v>
       </c>
       <c r="G41" s="3">
-        <v>2069600</v>
+        <v>2272100</v>
       </c>
       <c r="H41" s="3">
-        <v>1698600</v>
+        <v>2004900</v>
       </c>
       <c r="I41" s="3">
-        <v>2007400</v>
+        <v>1645400</v>
       </c>
       <c r="J41" s="3">
+        <v>1944600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1137700</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>104150000</v>
+        <v>105179000</v>
       </c>
       <c r="E42" s="3">
-        <v>98467100</v>
+        <v>100893000</v>
       </c>
       <c r="F42" s="3">
-        <v>93294600</v>
+        <v>95388400</v>
       </c>
       <c r="G42" s="3">
-        <v>88646100</v>
+        <v>90377600</v>
       </c>
       <c r="H42" s="3">
-        <v>74451500</v>
+        <v>85874400</v>
       </c>
       <c r="I42" s="3">
-        <v>46814400</v>
+        <v>90960300</v>
       </c>
       <c r="J42" s="3">
+        <v>45350700</v>
+      </c>
+      <c r="K42" s="3">
         <v>23922700</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1554,9 +1681,12 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1581,9 +1711,12 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1608,9 +1741,12 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1635,90 +1771,102 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>549300</v>
+        <v>391500</v>
       </c>
       <c r="E47" s="3">
-        <v>588500</v>
+        <v>532100</v>
       </c>
       <c r="F47" s="3">
-        <v>1418900</v>
+        <v>570100</v>
       </c>
       <c r="G47" s="3">
-        <v>1477300</v>
+        <v>1374600</v>
       </c>
       <c r="H47" s="3">
-        <v>1302100</v>
+        <v>1431100</v>
       </c>
       <c r="I47" s="3">
-        <v>1256100</v>
+        <v>1261400</v>
       </c>
       <c r="J47" s="3">
+        <v>1216800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1070900</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1369800</v>
+        <v>1335900</v>
       </c>
       <c r="E48" s="3">
-        <v>1458100</v>
+        <v>1326900</v>
       </c>
       <c r="F48" s="3">
-        <v>1457300</v>
+        <v>1412500</v>
       </c>
       <c r="G48" s="3">
-        <v>1380500</v>
+        <v>1411800</v>
       </c>
       <c r="H48" s="3">
-        <v>2641200</v>
+        <v>1337300</v>
       </c>
       <c r="I48" s="3">
-        <v>1856000</v>
+        <v>2558600</v>
       </c>
       <c r="J48" s="3">
+        <v>1798000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1213800</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5642600</v>
+        <v>5588300</v>
       </c>
       <c r="E49" s="3">
-        <v>2265500</v>
+        <v>5466200</v>
       </c>
       <c r="F49" s="3">
-        <v>2091900</v>
+        <v>2194700</v>
       </c>
       <c r="G49" s="3">
-        <v>1856800</v>
+        <v>2026500</v>
       </c>
       <c r="H49" s="3">
-        <v>2477500</v>
+        <v>1798800</v>
       </c>
       <c r="I49" s="3">
-        <v>1915200</v>
+        <v>2400100</v>
       </c>
       <c r="J49" s="3">
+        <v>1855300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1774600</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>712100</v>
+        <v>716700</v>
       </c>
       <c r="E52" s="3">
-        <v>736000</v>
+        <v>689900</v>
       </c>
       <c r="F52" s="3">
-        <v>389500</v>
+        <v>713000</v>
       </c>
       <c r="G52" s="3">
-        <v>388700</v>
+        <v>377300</v>
       </c>
       <c r="H52" s="3">
-        <v>1082400</v>
+        <v>376600</v>
       </c>
       <c r="I52" s="3">
-        <v>783600</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+        <v>1048600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>759100</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>434253000</v>
+        <v>444367000</v>
       </c>
       <c r="E54" s="3">
-        <v>385158000</v>
+        <v>420675000</v>
       </c>
       <c r="F54" s="3">
-        <v>355928000</v>
+        <v>373115000</v>
       </c>
       <c r="G54" s="3">
-        <v>318741000</v>
+        <v>344799000</v>
       </c>
       <c r="H54" s="3">
-        <v>305760000</v>
+        <v>308775000</v>
       </c>
       <c r="I54" s="3">
-        <v>302210000</v>
+        <v>296200000</v>
       </c>
       <c r="J54" s="3">
+        <v>292761000</v>
+      </c>
+      <c r="K54" s="3">
         <v>294814000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,8 +2042,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1895,18 +2060,21 @@
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="3">
-        <v>832800</v>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I57" s="3">
-        <v>891100</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+        <v>806700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>863300</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1931,9 +2099,12 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -1949,18 +2120,21 @@
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="3">
-        <v>897300</v>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I59" s="3">
-        <v>1010200</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+        <v>869200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>978600</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1985,63 +2159,72 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13000000</v>
+        <v>13293100</v>
       </c>
       <c r="E61" s="3">
-        <v>10527800</v>
+        <v>12593500</v>
       </c>
       <c r="F61" s="3">
-        <v>10509400</v>
+        <v>10198700</v>
       </c>
       <c r="G61" s="3">
-        <v>3824200</v>
+        <v>10180800</v>
       </c>
       <c r="H61" s="3">
-        <v>3248100</v>
+        <v>13378700</v>
       </c>
       <c r="I61" s="3">
-        <v>4994300</v>
+        <v>13064600</v>
       </c>
       <c r="J61" s="3">
+        <v>4838100</v>
+      </c>
+      <c r="K61" s="3">
         <v>43363500</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="E62" s="3">
-        <v>16100</v>
+        <v>22300</v>
       </c>
       <c r="F62" s="3">
-        <v>21500</v>
+        <v>15600</v>
       </c>
       <c r="G62" s="3">
-        <v>22300</v>
+        <v>20800</v>
       </c>
       <c r="H62" s="3">
-        <v>543100</v>
+        <v>21600</v>
       </c>
       <c r="I62" s="3">
-        <v>533200</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+        <v>526200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>516500</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>410411000</v>
+        <v>418362000</v>
       </c>
       <c r="E66" s="3">
-        <v>367126000</v>
+        <v>397579000</v>
       </c>
       <c r="F66" s="3">
-        <v>339519000</v>
+        <v>355647000</v>
       </c>
       <c r="G66" s="3">
-        <v>304437000</v>
+        <v>328903000</v>
       </c>
       <c r="H66" s="3">
-        <v>292071000</v>
+        <v>294919000</v>
       </c>
       <c r="I66" s="3">
-        <v>289253000</v>
+        <v>282939000</v>
       </c>
       <c r="J66" s="3">
+        <v>280209000</v>
+      </c>
+      <c r="K66" s="3">
         <v>282579000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,36 +2413,42 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1380500</v>
+        <v>1674500</v>
       </c>
       <c r="E70" s="3">
-        <v>768200</v>
+        <v>1337300</v>
       </c>
       <c r="F70" s="3">
-        <v>768200</v>
+        <v>744200</v>
       </c>
       <c r="G70" s="3">
-        <v>792000</v>
+        <v>744200</v>
       </c>
       <c r="H70" s="3">
-        <v>1310600</v>
+        <v>767300</v>
       </c>
       <c r="I70" s="3">
-        <v>1310600</v>
+        <v>1269600</v>
       </c>
       <c r="J70" s="3">
+        <v>1269600</v>
+      </c>
+      <c r="K70" s="3">
         <v>2117200</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12369300</v>
+        <v>13795400</v>
       </c>
       <c r="E72" s="3">
-        <v>10435600</v>
+        <v>11982500</v>
       </c>
       <c r="F72" s="3">
-        <v>8783200</v>
+        <v>10109300</v>
       </c>
       <c r="G72" s="3">
-        <v>7395000</v>
+        <v>8508600</v>
       </c>
       <c r="H72" s="3">
-        <v>6390100</v>
+        <v>7163800</v>
       </c>
       <c r="I72" s="3">
-        <v>5409900</v>
+        <v>6190300</v>
       </c>
       <c r="J72" s="3">
+        <v>5240700</v>
+      </c>
+      <c r="K72" s="3">
         <v>4192200</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22461500</v>
+        <v>24330400</v>
       </c>
       <c r="E76" s="3">
-        <v>17263700</v>
+        <v>21759300</v>
       </c>
       <c r="F76" s="3">
-        <v>15641200</v>
+        <v>16723900</v>
       </c>
       <c r="G76" s="3">
-        <v>13511700</v>
+        <v>15152100</v>
       </c>
       <c r="H76" s="3">
-        <v>12378500</v>
+        <v>13089100</v>
       </c>
       <c r="I76" s="3">
-        <v>11646400</v>
+        <v>11991500</v>
       </c>
       <c r="J76" s="3">
+        <v>11282200</v>
+      </c>
+      <c r="K76" s="3">
         <v>10118400</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E80" s="2">
         <v>43039</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42674</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42308</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>41943</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41578</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41213</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40847</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3570000</v>
+        <v>3853500</v>
       </c>
       <c r="E81" s="3">
-        <v>3255000</v>
+        <v>3458300</v>
       </c>
       <c r="F81" s="3">
-        <v>2712600</v>
+        <v>3153200</v>
       </c>
       <c r="G81" s="3">
-        <v>2405300</v>
+        <v>2627800</v>
       </c>
       <c r="H81" s="3">
-        <v>2499100</v>
+        <v>2330100</v>
       </c>
       <c r="I81" s="3">
-        <v>2409200</v>
+        <v>2420900</v>
       </c>
       <c r="J81" s="3">
+        <v>2333800</v>
+      </c>
+      <c r="K81" s="3">
         <v>2014300</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>416400</v>
+        <v>488900</v>
       </c>
       <c r="E83" s="3">
-        <v>354900</v>
+        <v>403400</v>
       </c>
       <c r="F83" s="3">
-        <v>334200</v>
+        <v>343800</v>
       </c>
       <c r="G83" s="3">
-        <v>624600</v>
+        <v>323700</v>
       </c>
       <c r="H83" s="3">
-        <v>272000</v>
+        <v>605000</v>
       </c>
       <c r="I83" s="3">
-        <v>274300</v>
+        <v>263500</v>
       </c>
       <c r="J83" s="3">
+        <v>265700</v>
+      </c>
+      <c r="K83" s="3">
         <v>427100</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1887500</v>
+        <v>7343100</v>
       </c>
       <c r="E89" s="3">
-        <v>7844400</v>
+        <v>1828500</v>
       </c>
       <c r="F89" s="3">
-        <v>14967400</v>
+        <v>7599100</v>
       </c>
       <c r="G89" s="3">
-        <v>-12730300</v>
+        <v>14499400</v>
       </c>
       <c r="H89" s="3">
-        <v>3984000</v>
+        <v>-12332300</v>
       </c>
       <c r="I89" s="3">
-        <v>1244500</v>
+        <v>3859500</v>
       </c>
       <c r="J89" s="3">
+        <v>1205600</v>
+      </c>
+      <c r="K89" s="3">
         <v>3920300</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-130600</v>
+      <c r="D91" s="3">
+        <v>-189800</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F91" s="3">
-        <v>-196700</v>
+        <v>-126500</v>
       </c>
       <c r="G91" s="3">
-        <v>-192800</v>
+        <v>-190500</v>
       </c>
       <c r="H91" s="3">
-        <v>-190500</v>
+        <v>-186800</v>
       </c>
       <c r="I91" s="3">
-        <v>-237400</v>
+        <v>-184600</v>
       </c>
       <c r="J91" s="3">
+        <v>-230000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-360300</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1509600</v>
+        <v>-5944000</v>
       </c>
       <c r="E94" s="3">
-        <v>-5671800</v>
+        <v>-1462400</v>
       </c>
       <c r="F94" s="3">
-        <v>-12676600</v>
+        <v>-5494500</v>
       </c>
       <c r="G94" s="3">
-        <v>14433500</v>
+        <v>-12280200</v>
       </c>
       <c r="H94" s="3">
-        <v>-2309300</v>
+        <v>13982200</v>
       </c>
       <c r="I94" s="3">
-        <v>1687800</v>
+        <v>-2237100</v>
       </c>
       <c r="J94" s="3">
+        <v>1635000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2927000</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1094700</v>
+        <v>-1569500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1472700</v>
+        <v>-1060500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1346700</v>
+        <v>-1426700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1270700</v>
+        <v>-1304600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1246100</v>
+        <v>-1230900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1227600</v>
+        <v>-1207100</v>
       </c>
       <c r="J96" s="3">
+        <v>-1189200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1195400</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3210,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-384900</v>
+        <v>-739000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1871400</v>
+        <v>-372800</v>
       </c>
       <c r="F100" s="3">
-        <v>-2230200</v>
+        <v>-1812900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1408200</v>
+        <v>-2160400</v>
       </c>
       <c r="H100" s="3">
-        <v>-2020400</v>
+        <v>-1364100</v>
       </c>
       <c r="I100" s="3">
-        <v>-2066500</v>
+        <v>-1957300</v>
       </c>
       <c r="J100" s="3">
+        <v>-2001900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1237600</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-39200</v>
+        <v>39400</v>
       </c>
       <c r="E101" s="3">
-        <v>42300</v>
+        <v>-38000</v>
       </c>
       <c r="F101" s="3">
-        <v>215100</v>
+        <v>40900</v>
       </c>
       <c r="G101" s="3">
-        <v>76100</v>
+        <v>208400</v>
       </c>
       <c r="H101" s="3">
-        <v>36900</v>
+        <v>73700</v>
       </c>
       <c r="I101" s="3">
-        <v>3800</v>
+        <v>35700</v>
       </c>
       <c r="J101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-13800</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-46100</v>
+        <v>699600</v>
       </c>
       <c r="E102" s="3">
-        <v>343400</v>
+        <v>-44700</v>
       </c>
       <c r="F102" s="3">
-        <v>275800</v>
+        <v>332700</v>
       </c>
       <c r="G102" s="3">
-        <v>371100</v>
+        <v>267200</v>
       </c>
       <c r="H102" s="3">
-        <v>-308800</v>
+        <v>359500</v>
       </c>
       <c r="I102" s="3">
-        <v>869600</v>
+        <v>-299200</v>
       </c>
       <c r="J102" s="3">
+        <v>842400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-258100</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/CM_YR_FIN.xlsx
+++ b/Financials/Yearly/CM_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DBF3B6-320D-48CC-8CA6-05258BD7C9A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="CM" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>CM</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,92 +654,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43769</v>
+      </c>
+      <c r="E7" s="2">
         <v>43404</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43039</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42674</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42308</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41943</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41578</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41213</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40847</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13027400</v>
+        <v>15580500</v>
       </c>
       <c r="E8" s="3">
-        <v>10116000</v>
+        <v>13177600</v>
       </c>
       <c r="F8" s="3">
-        <v>8999000</v>
+        <v>10232700</v>
       </c>
       <c r="G8" s="3">
-        <v>8545800</v>
+        <v>9102700</v>
       </c>
       <c r="H8" s="3">
-        <v>8541300</v>
+        <v>8644300</v>
       </c>
       <c r="I8" s="3">
-        <v>8789900</v>
+        <v>8639800</v>
       </c>
       <c r="J8" s="3">
+        <v>8891200</v>
+      </c>
+      <c r="K8" s="3">
         <v>8861300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9244100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -802,9 +773,12 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -832,9 +806,12 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -847,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -876,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -906,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -936,9 +920,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -966,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -978,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6184400</v>
+        <v>8605900</v>
       </c>
       <c r="E17" s="3">
-        <v>4052200</v>
+        <v>6255700</v>
       </c>
       <c r="F17" s="3">
-        <v>3555100</v>
+        <v>4098900</v>
       </c>
       <c r="G17" s="3">
-        <v>3229100</v>
+        <v>3596100</v>
       </c>
       <c r="H17" s="3">
-        <v>3687600</v>
+        <v>3266400</v>
       </c>
       <c r="I17" s="3">
-        <v>4077500</v>
+        <v>3730100</v>
       </c>
       <c r="J17" s="3">
+        <v>4124500</v>
+      </c>
+      <c r="K17" s="3">
         <v>4370000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4697700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6843000</v>
+        <v>6974600</v>
       </c>
       <c r="E18" s="3">
-        <v>6063800</v>
+        <v>6921900</v>
       </c>
       <c r="F18" s="3">
-        <v>5443900</v>
+        <v>6133700</v>
       </c>
       <c r="G18" s="3">
-        <v>5316600</v>
+        <v>5506700</v>
       </c>
       <c r="H18" s="3">
-        <v>4853700</v>
+        <v>5377900</v>
       </c>
       <c r="I18" s="3">
-        <v>4712300</v>
+        <v>4909700</v>
       </c>
       <c r="J18" s="3">
+        <v>4766700</v>
+      </c>
+      <c r="K18" s="3">
         <v>4491300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4546400</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1852300</v>
+        <v>-2104800</v>
       </c>
       <c r="E20" s="3">
-        <v>-1687900</v>
+        <v>-1873700</v>
       </c>
       <c r="F20" s="3">
-        <v>-1713200</v>
+        <v>-1707300</v>
       </c>
       <c r="G20" s="3">
-        <v>-2173100</v>
+        <v>-1732900</v>
       </c>
       <c r="H20" s="3">
-        <v>-1940900</v>
+        <v>-2198100</v>
       </c>
       <c r="I20" s="3">
-        <v>-1753400</v>
+        <v>-1963300</v>
       </c>
       <c r="J20" s="3">
+        <v>-1773600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1520400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1623300</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5480600</v>
+        <v>5500900</v>
       </c>
       <c r="E21" s="3">
-        <v>4780200</v>
+        <v>5543000</v>
       </c>
       <c r="F21" s="3">
-        <v>4075300</v>
+        <v>4834600</v>
       </c>
       <c r="G21" s="3">
-        <v>3468000</v>
+        <v>4121700</v>
       </c>
       <c r="H21" s="3">
-        <v>3519100</v>
+        <v>3507400</v>
       </c>
       <c r="I21" s="3">
-        <v>3223000</v>
+        <v>3558700</v>
       </c>
       <c r="J21" s="3">
+        <v>3259700</v>
+      </c>
+      <c r="K21" s="3">
         <v>3237100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3352300</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1141,69 +1145,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4990700</v>
+        <v>4869800</v>
       </c>
       <c r="E23" s="3">
-        <v>4376000</v>
+        <v>5048200</v>
       </c>
       <c r="F23" s="3">
-        <v>3730700</v>
+        <v>4426400</v>
       </c>
       <c r="G23" s="3">
-        <v>3143500</v>
+        <v>3773700</v>
       </c>
       <c r="H23" s="3">
-        <v>2912800</v>
+        <v>3179800</v>
       </c>
       <c r="I23" s="3">
-        <v>2959000</v>
+        <v>2946400</v>
       </c>
       <c r="J23" s="3">
+        <v>2993100</v>
+      </c>
+      <c r="K23" s="3">
         <v>2970900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2923100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1058300</v>
+        <v>1014800</v>
       </c>
       <c r="E24" s="3">
-        <v>864800</v>
+        <v>1070500</v>
       </c>
       <c r="F24" s="3">
-        <v>534300</v>
+        <v>874700</v>
       </c>
       <c r="G24" s="3">
-        <v>471800</v>
+        <v>540500</v>
       </c>
       <c r="H24" s="3">
-        <v>520200</v>
+        <v>477300</v>
       </c>
       <c r="I24" s="3">
-        <v>465900</v>
+        <v>526200</v>
       </c>
       <c r="J24" s="3">
+        <v>471200</v>
+      </c>
+      <c r="K24" s="3">
         <v>512800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>712100</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1231,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3932400</v>
+        <v>3855000</v>
       </c>
       <c r="E26" s="3">
-        <v>3511200</v>
+        <v>3977700</v>
       </c>
       <c r="F26" s="3">
-        <v>3196400</v>
+        <v>3551700</v>
       </c>
       <c r="G26" s="3">
-        <v>2671700</v>
+        <v>3233200</v>
       </c>
       <c r="H26" s="3">
-        <v>2392600</v>
+        <v>2702500</v>
       </c>
       <c r="I26" s="3">
-        <v>2493100</v>
+        <v>2420200</v>
       </c>
       <c r="J26" s="3">
+        <v>2521800</v>
+      </c>
+      <c r="K26" s="3">
         <v>2458100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2211000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3853500</v>
+        <v>3752700</v>
       </c>
       <c r="E27" s="3">
-        <v>3458300</v>
+        <v>3897900</v>
       </c>
       <c r="F27" s="3">
-        <v>3153200</v>
+        <v>3498200</v>
       </c>
       <c r="G27" s="3">
-        <v>2627800</v>
+        <v>3189600</v>
       </c>
       <c r="H27" s="3">
-        <v>2330100</v>
+        <v>2658100</v>
       </c>
       <c r="I27" s="3">
-        <v>2420900</v>
+        <v>2357000</v>
       </c>
       <c r="J27" s="3">
+        <v>2448800</v>
+      </c>
+      <c r="K27" s="3">
         <v>2333800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2014300</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1321,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1351,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1381,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1411,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1852300</v>
+        <v>2104800</v>
       </c>
       <c r="E32" s="3">
-        <v>1687900</v>
+        <v>1873700</v>
       </c>
       <c r="F32" s="3">
-        <v>1713200</v>
+        <v>1707300</v>
       </c>
       <c r="G32" s="3">
-        <v>2173100</v>
+        <v>1732900</v>
       </c>
       <c r="H32" s="3">
-        <v>1940900</v>
+        <v>2198100</v>
       </c>
       <c r="I32" s="3">
-        <v>1753400</v>
+        <v>1963300</v>
       </c>
       <c r="J32" s="3">
+        <v>1773600</v>
+      </c>
+      <c r="K32" s="3">
         <v>1520400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1623300</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3853500</v>
+        <v>3752700</v>
       </c>
       <c r="E33" s="3">
-        <v>3458300</v>
+        <v>3897900</v>
       </c>
       <c r="F33" s="3">
-        <v>3153200</v>
+        <v>3498200</v>
       </c>
       <c r="G33" s="3">
-        <v>2627800</v>
+        <v>3189600</v>
       </c>
       <c r="H33" s="3">
-        <v>2330100</v>
+        <v>2658100</v>
       </c>
       <c r="I33" s="3">
-        <v>2420900</v>
+        <v>2357000</v>
       </c>
       <c r="J33" s="3">
+        <v>2448800</v>
+      </c>
+      <c r="K33" s="3">
         <v>2333800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2014300</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1501,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3853500</v>
+        <v>3752700</v>
       </c>
       <c r="E35" s="3">
-        <v>3458300</v>
+        <v>3897900</v>
       </c>
       <c r="F35" s="3">
-        <v>3153200</v>
+        <v>3498200</v>
       </c>
       <c r="G35" s="3">
-        <v>2627800</v>
+        <v>3189600</v>
       </c>
       <c r="H35" s="3">
-        <v>2330100</v>
+        <v>2658100</v>
       </c>
       <c r="I35" s="3">
-        <v>2420900</v>
+        <v>2357000</v>
       </c>
       <c r="J35" s="3">
+        <v>2448800</v>
+      </c>
+      <c r="K35" s="3">
         <v>2333800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2014300</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43769</v>
+      </c>
+      <c r="E38" s="2">
         <v>43404</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43039</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42674</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42308</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41943</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41578</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41213</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40847</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1581,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1595,68 +1645,75 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3259600</v>
+        <v>2890700</v>
       </c>
       <c r="E41" s="3">
-        <v>2560100</v>
+        <v>3297200</v>
       </c>
       <c r="F41" s="3">
-        <v>2604700</v>
+        <v>2589600</v>
       </c>
       <c r="G41" s="3">
-        <v>2272100</v>
+        <v>2634800</v>
       </c>
       <c r="H41" s="3">
-        <v>2004900</v>
+        <v>2298300</v>
       </c>
       <c r="I41" s="3">
-        <v>1645400</v>
+        <v>2028000</v>
       </c>
       <c r="J41" s="3">
+        <v>1664400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1944600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1137700</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>105179000</v>
+        <v>118768000</v>
       </c>
       <c r="E42" s="3">
-        <v>100893000</v>
+        <v>106391000</v>
       </c>
       <c r="F42" s="3">
-        <v>95388400</v>
+        <v>102057000</v>
       </c>
       <c r="G42" s="3">
-        <v>90377600</v>
+        <v>96488100</v>
       </c>
       <c r="H42" s="3">
-        <v>85874400</v>
+        <v>91419600</v>
       </c>
       <c r="I42" s="3">
-        <v>90960300</v>
+        <v>86864400</v>
       </c>
       <c r="J42" s="3">
+        <v>92009000</v>
+      </c>
+      <c r="K42" s="3">
         <v>45350700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>23922700</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1684,9 +1741,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1714,9 +1774,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1744,9 +1807,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1774,99 +1840,111 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>391500</v>
+        <v>441100</v>
       </c>
       <c r="E47" s="3">
-        <v>532100</v>
+        <v>396000</v>
       </c>
       <c r="F47" s="3">
-        <v>570100</v>
+        <v>538200</v>
       </c>
       <c r="G47" s="3">
-        <v>1374600</v>
+        <v>576600</v>
       </c>
       <c r="H47" s="3">
-        <v>1431100</v>
+        <v>1390400</v>
       </c>
       <c r="I47" s="3">
-        <v>1261400</v>
+        <v>1447600</v>
       </c>
       <c r="J47" s="3">
+        <v>1276000</v>
+      </c>
+      <c r="K47" s="3">
         <v>1216800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1070900</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1335900</v>
+        <v>1364800</v>
       </c>
       <c r="E48" s="3">
-        <v>1326900</v>
+        <v>1351300</v>
       </c>
       <c r="F48" s="3">
-        <v>1412500</v>
+        <v>1342200</v>
       </c>
       <c r="G48" s="3">
-        <v>1411800</v>
+        <v>1428800</v>
       </c>
       <c r="H48" s="3">
-        <v>1337300</v>
+        <v>1428000</v>
       </c>
       <c r="I48" s="3">
-        <v>2558600</v>
+        <v>1352800</v>
       </c>
       <c r="J48" s="3">
+        <v>2588100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1798000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1213800</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5588300</v>
+        <v>5584200</v>
       </c>
       <c r="E49" s="3">
-        <v>5466200</v>
+        <v>5652700</v>
       </c>
       <c r="F49" s="3">
-        <v>2194700</v>
+        <v>5529200</v>
       </c>
       <c r="G49" s="3">
-        <v>2026500</v>
+        <v>2220000</v>
       </c>
       <c r="H49" s="3">
-        <v>1798800</v>
+        <v>2049800</v>
       </c>
       <c r="I49" s="3">
-        <v>2400100</v>
+        <v>1819500</v>
       </c>
       <c r="J49" s="3">
+        <v>2427700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1855300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1774600</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1894,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1924,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>716700</v>
+        <v>520900</v>
       </c>
       <c r="E52" s="3">
-        <v>689900</v>
+        <v>724900</v>
       </c>
       <c r="F52" s="3">
-        <v>713000</v>
+        <v>697800</v>
       </c>
       <c r="G52" s="3">
-        <v>377300</v>
+        <v>721200</v>
       </c>
       <c r="H52" s="3">
-        <v>376600</v>
+        <v>381700</v>
       </c>
       <c r="I52" s="3">
-        <v>1048600</v>
+        <v>380900</v>
       </c>
       <c r="J52" s="3">
+        <v>1060700</v>
+      </c>
+      <c r="K52" s="3">
         <v>759100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1984,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>444367000</v>
+        <v>490521000</v>
       </c>
       <c r="E54" s="3">
-        <v>420675000</v>
+        <v>449490000</v>
       </c>
       <c r="F54" s="3">
-        <v>373115000</v>
+        <v>425525000</v>
       </c>
       <c r="G54" s="3">
-        <v>344799000</v>
+        <v>377417000</v>
       </c>
       <c r="H54" s="3">
-        <v>308775000</v>
+        <v>348774000</v>
       </c>
       <c r="I54" s="3">
-        <v>296200000</v>
+        <v>312335000</v>
       </c>
       <c r="J54" s="3">
+        <v>299615000</v>
+      </c>
+      <c r="K54" s="3">
         <v>292761000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>294814000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2029,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2043,8 +2137,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2063,18 +2158,21 @@
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="3">
-        <v>806700</v>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J57" s="3">
+        <v>816000</v>
+      </c>
+      <c r="K57" s="3">
         <v>863300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2102,9 +2200,12 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2123,18 +2224,21 @@
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="3">
-        <v>869200</v>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J59" s="3">
+        <v>879300</v>
+      </c>
+      <c r="K59" s="3">
         <v>978600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2162,69 +2266,78 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13293100</v>
+        <v>3526100</v>
       </c>
       <c r="E61" s="3">
-        <v>12593500</v>
+        <v>3071400</v>
       </c>
       <c r="F61" s="3">
-        <v>10198700</v>
+        <v>12738700</v>
       </c>
       <c r="G61" s="3">
-        <v>10180800</v>
+        <v>10316200</v>
       </c>
       <c r="H61" s="3">
-        <v>13378700</v>
+        <v>10298200</v>
       </c>
       <c r="I61" s="3">
-        <v>13064600</v>
+        <v>13532900</v>
       </c>
       <c r="J61" s="3">
+        <v>13215200</v>
+      </c>
+      <c r="K61" s="3">
         <v>4838100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>43363500</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>32000</v>
+        <v>28600</v>
       </c>
       <c r="E62" s="3">
-        <v>22300</v>
+        <v>32400</v>
       </c>
       <c r="F62" s="3">
-        <v>15600</v>
+        <v>22600</v>
       </c>
       <c r="G62" s="3">
-        <v>20800</v>
+        <v>15800</v>
       </c>
       <c r="H62" s="3">
-        <v>21600</v>
+        <v>21100</v>
       </c>
       <c r="I62" s="3">
-        <v>526200</v>
+        <v>21800</v>
       </c>
       <c r="J62" s="3">
+        <v>532200</v>
+      </c>
+      <c r="K62" s="3">
         <v>516500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2252,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2282,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2312,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>418362000</v>
+        <v>461618000</v>
       </c>
       <c r="E66" s="3">
-        <v>397579000</v>
+        <v>423185000</v>
       </c>
       <c r="F66" s="3">
-        <v>355647000</v>
+        <v>402162000</v>
       </c>
       <c r="G66" s="3">
-        <v>328903000</v>
+        <v>359747000</v>
       </c>
       <c r="H66" s="3">
-        <v>294919000</v>
+        <v>332695000</v>
       </c>
       <c r="I66" s="3">
-        <v>282939000</v>
+        <v>298319000</v>
       </c>
       <c r="J66" s="3">
+        <v>286201000</v>
+      </c>
+      <c r="K66" s="3">
         <v>280209000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>282579000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2357,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2386,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2416,39 +2545,45 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1674500</v>
+        <v>2126600</v>
       </c>
       <c r="E70" s="3">
-        <v>1337300</v>
+        <v>1693800</v>
       </c>
       <c r="F70" s="3">
-        <v>744200</v>
+        <v>1352800</v>
       </c>
       <c r="G70" s="3">
-        <v>744200</v>
+        <v>752800</v>
       </c>
       <c r="H70" s="3">
-        <v>767300</v>
+        <v>752800</v>
       </c>
       <c r="I70" s="3">
+        <v>776100</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1284300</v>
+      </c>
+      <c r="K70" s="3">
         <v>1269600</v>
       </c>
-      <c r="J70" s="3">
-        <v>1269600</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2117200</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2476,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13795400</v>
+        <v>15787500</v>
       </c>
       <c r="E72" s="3">
-        <v>11982500</v>
+        <v>13954500</v>
       </c>
       <c r="F72" s="3">
-        <v>10109300</v>
+        <v>12120700</v>
       </c>
       <c r="G72" s="3">
-        <v>8508600</v>
+        <v>10225900</v>
       </c>
       <c r="H72" s="3">
-        <v>7163800</v>
+        <v>8606600</v>
       </c>
       <c r="I72" s="3">
-        <v>6190300</v>
+        <v>7246400</v>
       </c>
       <c r="J72" s="3">
+        <v>6261700</v>
+      </c>
+      <c r="K72" s="3">
         <v>5240700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4192200</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2536,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2566,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2596,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24330400</v>
+        <v>26776000</v>
       </c>
       <c r="E76" s="3">
-        <v>21759300</v>
+        <v>24610900</v>
       </c>
       <c r="F76" s="3">
-        <v>16723900</v>
+        <v>22010000</v>
       </c>
       <c r="G76" s="3">
-        <v>15152100</v>
+        <v>16916700</v>
       </c>
       <c r="H76" s="3">
-        <v>13089100</v>
+        <v>15326800</v>
       </c>
       <c r="I76" s="3">
-        <v>11991500</v>
+        <v>13240100</v>
       </c>
       <c r="J76" s="3">
+        <v>12129700</v>
+      </c>
+      <c r="K76" s="3">
         <v>11282200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10118400</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2656,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43769</v>
+      </c>
+      <c r="E80" s="2">
         <v>43404</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43039</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42674</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42308</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41943</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41578</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41213</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40847</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3853500</v>
+        <v>3752700</v>
       </c>
       <c r="E81" s="3">
-        <v>3458300</v>
+        <v>3897900</v>
       </c>
       <c r="F81" s="3">
-        <v>3153200</v>
+        <v>3498200</v>
       </c>
       <c r="G81" s="3">
-        <v>2627800</v>
+        <v>3189600</v>
       </c>
       <c r="H81" s="3">
-        <v>2330100</v>
+        <v>2658100</v>
       </c>
       <c r="I81" s="3">
-        <v>2420900</v>
+        <v>2357000</v>
       </c>
       <c r="J81" s="3">
+        <v>2448800</v>
+      </c>
+      <c r="K81" s="3">
         <v>2333800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2014300</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2736,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>488900</v>
+        <v>630800</v>
       </c>
       <c r="E83" s="3">
-        <v>403400</v>
+        <v>494600</v>
       </c>
       <c r="F83" s="3">
-        <v>343800</v>
+        <v>408000</v>
       </c>
       <c r="G83" s="3">
-        <v>323700</v>
+        <v>347800</v>
       </c>
       <c r="H83" s="3">
-        <v>605000</v>
+        <v>327500</v>
       </c>
       <c r="I83" s="3">
-        <v>263500</v>
+        <v>612000</v>
       </c>
       <c r="J83" s="3">
+        <v>266500</v>
+      </c>
+      <c r="K83" s="3">
         <v>265700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>427100</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2795,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2825,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2855,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2885,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2915,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7343100</v>
+        <v>14028200</v>
       </c>
       <c r="E89" s="3">
-        <v>1828500</v>
+        <v>7427800</v>
       </c>
       <c r="F89" s="3">
-        <v>7599100</v>
+        <v>1849600</v>
       </c>
       <c r="G89" s="3">
-        <v>14499400</v>
+        <v>7686700</v>
       </c>
       <c r="H89" s="3">
-        <v>-12332300</v>
+        <v>14666600</v>
       </c>
       <c r="I89" s="3">
-        <v>3859500</v>
+        <v>-12474500</v>
       </c>
       <c r="J89" s="3">
+        <v>3904000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1205600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3920300</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2960,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-189800</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-126500</v>
+        <v>-204800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-192000</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
-        <v>-190500</v>
+        <v>-128000</v>
       </c>
       <c r="H91" s="3">
-        <v>-186800</v>
+        <v>-192700</v>
       </c>
       <c r="I91" s="3">
-        <v>-184600</v>
+        <v>-189000</v>
       </c>
       <c r="J91" s="3">
+        <v>-186700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-230000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-360300</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3019,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3049,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5944000</v>
+        <v>-13466700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1462400</v>
+        <v>-6012500</v>
       </c>
       <c r="F94" s="3">
-        <v>-5494500</v>
+        <v>-1479200</v>
       </c>
       <c r="G94" s="3">
-        <v>-12280200</v>
+        <v>-5557800</v>
       </c>
       <c r="H94" s="3">
-        <v>13982200</v>
+        <v>-12421800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2237100</v>
+        <v>14143400</v>
       </c>
       <c r="J94" s="3">
+        <v>-2262900</v>
+      </c>
+      <c r="K94" s="3">
         <v>1635000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2927000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3094,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1569500</v>
+        <v>-1811200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1060500</v>
+        <v>-1587600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1426700</v>
+        <v>-1072700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1304600</v>
+        <v>-1443100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1230900</v>
+        <v>-1319600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1207100</v>
+        <v>-1245100</v>
       </c>
       <c r="J96" s="3">
+        <v>-1221000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1189200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1195400</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3153,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3183,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3213,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-739000</v>
+        <v>-971100</v>
       </c>
       <c r="E100" s="3">
-        <v>-372800</v>
+        <v>-747500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1812900</v>
+        <v>-377100</v>
       </c>
       <c r="G100" s="3">
-        <v>-2160400</v>
+        <v>-1833800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1364100</v>
+        <v>-2185300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1957300</v>
+        <v>-1379900</v>
       </c>
       <c r="J100" s="3">
+        <v>-1979800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2001900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1237600</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>39400</v>
+        <v>3000</v>
       </c>
       <c r="E101" s="3">
-        <v>-38000</v>
+        <v>39900</v>
       </c>
       <c r="F101" s="3">
-        <v>40900</v>
+        <v>-38400</v>
       </c>
       <c r="G101" s="3">
-        <v>208400</v>
+        <v>41400</v>
       </c>
       <c r="H101" s="3">
-        <v>73700</v>
+        <v>210800</v>
       </c>
       <c r="I101" s="3">
-        <v>35700</v>
+        <v>74500</v>
       </c>
       <c r="J101" s="3">
+        <v>36100</v>
+      </c>
+      <c r="K101" s="3">
         <v>3700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-13800</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>699600</v>
+        <v>-406500</v>
       </c>
       <c r="E102" s="3">
-        <v>-44700</v>
+        <v>707600</v>
       </c>
       <c r="F102" s="3">
-        <v>332700</v>
+        <v>-45200</v>
       </c>
       <c r="G102" s="3">
-        <v>267200</v>
+        <v>336500</v>
       </c>
       <c r="H102" s="3">
-        <v>359500</v>
+        <v>270300</v>
       </c>
       <c r="I102" s="3">
-        <v>-299200</v>
+        <v>363600</v>
       </c>
       <c r="J102" s="3">
+        <v>-302600</v>
+      </c>
+      <c r="K102" s="3">
         <v>842400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-258100</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
